--- a/data/trans_orig/AIRE_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>16339</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7028</v>
+        <v>7458</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31842</v>
+        <v>33580</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06866914713152045</v>
+        <v>0.06866914713152042</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02953604501119258</v>
+        <v>0.0313424669271597</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1338227877985898</v>
+        <v>0.141124617132138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -762,19 +762,19 @@
         <v>15745</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10455</v>
+        <v>10337</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24240</v>
+        <v>24814</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05667128074134686</v>
+        <v>0.05667128074134688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03763092876993114</v>
+        <v>0.03720412336225122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08724495910273085</v>
+        <v>0.08931142154280222</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -783,19 +783,19 @@
         <v>32085</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21372</v>
+        <v>20756</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47951</v>
+        <v>49240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06220622700020693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04143624652782848</v>
+        <v>0.04024244158120229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09296788658864301</v>
+        <v>0.09546761387815561</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>121624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>102806</v>
+        <v>105519</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138572</v>
+        <v>140344</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.511143510347456</v>
+        <v>0.5111435103474559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4320602943400416</v>
+        <v>0.4434613493589321</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5823718985717237</v>
+        <v>0.5898200984882533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -833,19 +833,19 @@
         <v>136036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119949</v>
+        <v>121512</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152834</v>
+        <v>152945</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.489624638985106</v>
+        <v>0.4896246389851061</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4317226948346635</v>
+        <v>0.4373509169741596</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5500859569195501</v>
+        <v>0.5504839617215096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>299</v>
@@ -854,19 +854,19 @@
         <v>257659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232085</v>
+        <v>234465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>281338</v>
+        <v>281007</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4995518871031113</v>
+        <v>0.4995518871031114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4499683888677241</v>
+        <v>0.4545828206004884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5454615188886377</v>
+        <v>0.5448197031313164</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>37238</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27288</v>
+        <v>26740</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52172</v>
+        <v>50174</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1565001006038327</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1146814557642047</v>
+        <v>0.1123809521908447</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2192611716714824</v>
+        <v>0.2108642252286216</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -904,19 +904,19 @@
         <v>51407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40970</v>
+        <v>41089</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63587</v>
+        <v>64278</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.185025354172317</v>
+        <v>0.1850253541723171</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1474603938171082</v>
+        <v>0.1478874553668153</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2288627129676046</v>
+        <v>0.2313529686609859</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>105</v>
@@ -925,19 +925,19 @@
         <v>88645</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73036</v>
+        <v>73187</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105603</v>
+        <v>106128</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1718658689449079</v>
+        <v>0.171865868944908</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1416034195964102</v>
+        <v>0.141896059179946</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2047438909304262</v>
+        <v>0.2057630414080916</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>40749</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28818</v>
+        <v>28599</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55352</v>
+        <v>53319</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1712525133664238</v>
+        <v>0.1712525133664237</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1211139793085899</v>
+        <v>0.1201927119129286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2326279350165044</v>
+        <v>0.2240821425211653</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -975,19 +975,19 @@
         <v>41778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32158</v>
+        <v>31211</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52810</v>
+        <v>52848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1503699184201532</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1157451209983908</v>
+        <v>0.1123342789505216</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.190075190878511</v>
+        <v>0.1902135372943498</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -996,19 +996,19 @@
         <v>82527</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67644</v>
+        <v>66536</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102476</v>
+        <v>102083</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1600036347005591</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1311481789714765</v>
+        <v>0.1290012566415301</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.198681584034184</v>
+        <v>0.197919001570235</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>21994</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14927</v>
+        <v>14169</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34247</v>
+        <v>33721</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09243472855076741</v>
+        <v>0.0924347285507674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0627338793617766</v>
+        <v>0.05954677682270199</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.143929849294745</v>
+        <v>0.1417196178640054</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1046,19 +1046,19 @@
         <v>32871</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23281</v>
+        <v>23376</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45709</v>
+        <v>44288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1183088076810768</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08379371131912394</v>
+        <v>0.08413469131827424</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1645159098745985</v>
+        <v>0.1594043283210617</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -1067,19 +1067,19 @@
         <v>54865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41352</v>
+        <v>42026</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>70166</v>
+        <v>71254</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1063723822512147</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0801746647545524</v>
+        <v>0.08148079649764274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.136039446304762</v>
+        <v>0.1381480192615507</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>39733</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26269</v>
+        <v>26452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56978</v>
+        <v>56439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1008455056195219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06667101920002992</v>
+        <v>0.06713675022662871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1446140587595178</v>
+        <v>0.1432448790790914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -1192,19 +1192,19 @@
         <v>43631</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34013</v>
+        <v>33505</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57826</v>
+        <v>56314</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09260961759076623</v>
+        <v>0.09260961759076622</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07219582546980351</v>
+        <v>0.07111657044043845</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1227401203596124</v>
+        <v>0.1195303300538558</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -1213,19 +1213,19 @@
         <v>83364</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66588</v>
+        <v>65417</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102620</v>
+        <v>102558</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.096360452076049</v>
+        <v>0.09636045207604903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07696871628834724</v>
+        <v>0.07561564732388193</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1186178122048494</v>
+        <v>0.1185463682308655</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>108590</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89444</v>
+        <v>89308</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>129294</v>
+        <v>129759</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2756079457267151</v>
+        <v>0.275607945726715</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2270138436441178</v>
+        <v>0.2266694248354604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3281545561136176</v>
+        <v>0.3293363160179841</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>287</v>
@@ -1263,19 +1263,19 @@
         <v>188329</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169026</v>
+        <v>170546</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>207719</v>
+        <v>208591</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3997423503693996</v>
+        <v>0.3997423503693995</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3587691820093307</v>
+        <v>0.36199581211718</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4408970531549252</v>
+        <v>0.4427495309165535</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>398</v>
@@ -1284,19 +1284,19 @@
         <v>296920</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270813</v>
+        <v>270708</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>323292</v>
+        <v>324995</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.343208361063309</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.313031521465272</v>
+        <v>0.3129102001697913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3736924982406657</v>
+        <v>0.375660890944075</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>130135</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>111569</v>
+        <v>110639</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>151161</v>
+        <v>150489</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3302897368298083</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2831691482000104</v>
+        <v>0.2808073693211333</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3836566689895126</v>
+        <v>0.3819505008118477</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>149</v>
@@ -1334,19 +1334,19 @@
         <v>101572</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>86589</v>
+        <v>87617</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117293</v>
+        <v>117506</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2155933619390771</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1837922417490578</v>
+        <v>0.1859727563136682</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2489619946413048</v>
+        <v>0.2494151621396445</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>283</v>
@@ -1355,19 +1355,19 @@
         <v>231707</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>207720</v>
+        <v>209539</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>257529</v>
+        <v>258604</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2678290306095361</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2401031337427041</v>
+        <v>0.2422053955404687</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2976766458632897</v>
+        <v>0.2989193596464006</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>70581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55079</v>
+        <v>55885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87516</v>
+        <v>87667</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1791376565192649</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1397949448298424</v>
+        <v>0.1418389586213387</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2221209350228189</v>
+        <v>0.2225045719056847</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -1405,19 +1405,19 @@
         <v>74093</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61489</v>
+        <v>60755</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87688</v>
+        <v>87323</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1572677291251015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1305155464640831</v>
+        <v>0.1289571802771957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1861240695522518</v>
+        <v>0.1853488282322993</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -1426,19 +1426,19 @@
         <v>144674</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124337</v>
+        <v>124300</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165510</v>
+        <v>168287</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1672278545632144</v>
+        <v>0.1672278545632145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1437211657676793</v>
+        <v>0.1436779029450964</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1913130264015274</v>
+        <v>0.1945224488363082</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>44963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32717</v>
+        <v>33625</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59222</v>
+        <v>58862</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1141191553046898</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08303844451707797</v>
+        <v>0.08534255771406066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1503089284219045</v>
+        <v>0.1493962188518422</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -1476,19 +1476,19 @@
         <v>63502</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51225</v>
+        <v>51247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76664</v>
+        <v>77451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1347869409756556</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1087293250279333</v>
+        <v>0.1087763396522914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1627257289779558</v>
+        <v>0.1643961622641233</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -1497,19 +1497,19 @@
         <v>108465</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91439</v>
+        <v>91022</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>127864</v>
+        <v>128095</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1253743016878914</v>
+        <v>0.1253743016878915</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1056945176132694</v>
+        <v>0.1052119855640154</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1477980967557956</v>
+        <v>0.1480649375099108</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>23245</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14004</v>
+        <v>13986</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38301</v>
+        <v>40380</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05384009841833296</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03243602320000578</v>
+        <v>0.03239428182894576</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08871152383218184</v>
+        <v>0.09352812640458674</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -1622,19 +1622,19 @@
         <v>25339</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18710</v>
+        <v>17918</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34451</v>
+        <v>33719</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05925243469520819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04375105424940295</v>
+        <v>0.04189916250148535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08056209570560097</v>
+        <v>0.07885066090440945</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -1643,19 +1643,19 @@
         <v>48584</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36751</v>
+        <v>36734</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65097</v>
+        <v>64278</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05653332815288213</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04276481827903499</v>
+        <v>0.04274469061187666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07574829697536875</v>
+        <v>0.07479550148670301</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>76561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61834</v>
+        <v>60641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>94775</v>
+        <v>94423</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1773285809522632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1432174127851128</v>
+        <v>0.1404554601788244</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2195151237798359</v>
+        <v>0.2187008924599082</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>131</v>
@@ -1693,19 +1693,19 @@
         <v>80884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>68389</v>
+        <v>67570</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>95944</v>
+        <v>95084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1891425629240936</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1599218980523954</v>
+        <v>0.1580087071553652</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2243580510464786</v>
+        <v>0.222348331936183</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -1714,19 +1714,19 @@
         <v>157445</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>135799</v>
+        <v>137221</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>180076</v>
+        <v>180793</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1832073301471176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1580188817693823</v>
+        <v>0.1596740501118079</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2095411830930567</v>
+        <v>0.210375651774281</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>215537</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>195921</v>
+        <v>192751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>239569</v>
+        <v>238301</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4992223076287662</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4537878451116603</v>
+        <v>0.4464460261058676</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5548833029063516</v>
+        <v>0.5519482124939925</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>309</v>
@@ -1764,19 +1764,19 @@
         <v>199972</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>181529</v>
+        <v>184607</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>217211</v>
+        <v>217577</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4676210851718093</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4244937234445355</v>
+        <v>0.4316911004436968</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5079336767829329</v>
+        <v>0.5087886309720527</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>526</v>
@@ -1785,19 +1785,19 @@
         <v>415509</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>386712</v>
+        <v>386674</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>444982</v>
+        <v>443049</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4834972403721698</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4499878679340987</v>
+        <v>0.4499439104955435</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5177922971888974</v>
+        <v>0.51554369878035</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>70730</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55692</v>
+        <v>56995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87432</v>
+        <v>89011</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1638223680648107</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1289919996988759</v>
+        <v>0.1320103732140457</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2025089680674745</v>
+        <v>0.2061650614984017</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -1835,19 +1835,19 @@
         <v>64406</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51981</v>
+        <v>53040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77286</v>
+        <v>78655</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.150609101750446</v>
+        <v>0.1506091017504459</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1215537265849977</v>
+        <v>0.1240293216133629</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1807282381369139</v>
+        <v>0.1839292633932406</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>163</v>
@@ -1856,19 +1856,19 @@
         <v>135136</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116893</v>
+        <v>114923</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158844</v>
+        <v>156404</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1572473217432415</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1360201413129221</v>
+        <v>0.1337273549876521</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.184835246010648</v>
+        <v>0.1819959448231052</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>45673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35474</v>
+        <v>34686</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59538</v>
+        <v>60083</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1057866449358269</v>
+        <v>0.105786644935827</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08216374173287998</v>
+        <v>0.08033868377996048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1379015939813824</v>
+        <v>0.139163785021499</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>79</v>
@@ -1906,19 +1906,19 @@
         <v>57036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46240</v>
+        <v>44355</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70362</v>
+        <v>69852</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.133374815458443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1081300829295165</v>
+        <v>0.1037219967979851</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1645371221484248</v>
+        <v>0.163345058876228</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -1927,19 +1927,19 @@
         <v>102709</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>84401</v>
+        <v>86980</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>121276</v>
+        <v>122213</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.119514779584589</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09821144382099622</v>
+        <v>0.101211797868524</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1411200385554597</v>
+        <v>0.1422104267334282</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>26522</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17551</v>
+        <v>16475</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40138</v>
+        <v>42155</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1144779402615623</v>
+        <v>0.1144779402615624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07575483502821811</v>
+        <v>0.07111209206722879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1732481085242612</v>
+        <v>0.181955541500438</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2052,19 +2052,19 @@
         <v>28176</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18881</v>
+        <v>19120</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41077</v>
+        <v>43541</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.128555966411447</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0861475108634836</v>
+        <v>0.08723879728841141</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1874186105702129</v>
+        <v>0.19866131551085</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -2073,19 +2073,19 @@
         <v>54698</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40151</v>
+        <v>40516</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74393</v>
+        <v>74266</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1213217190107341</v>
+        <v>0.1213217190107342</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08905686505848394</v>
+        <v>0.08986575872346393</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.165005550007666</v>
+        <v>0.164724081765931</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>19596</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12107</v>
+        <v>11848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31959</v>
+        <v>32423</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08458525493202157</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05225934830449627</v>
+        <v>0.05114074195168924</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1379451329630861</v>
+        <v>0.1399472252954666</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>58</v>
@@ -2123,19 +2123,19 @@
         <v>31593</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23635</v>
+        <v>24513</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40384</v>
+        <v>40640</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1441486689437327</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1078372591834579</v>
+        <v>0.1118419926323483</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1842584902374306</v>
+        <v>0.1854245082172641</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>79</v>
@@ -2144,19 +2144,19 @@
         <v>51190</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>39921</v>
+        <v>41337</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>65992</v>
+        <v>67391</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1135409354160225</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08854630041090343</v>
+        <v>0.09168713768182322</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1463724102633922</v>
+        <v>0.1494750265973473</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>118533</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>103999</v>
+        <v>103721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>133896</v>
+        <v>135085</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5116311387924407</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.448894722158554</v>
+        <v>0.4476981283627874</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5779420199092544</v>
+        <v>0.5830729342307556</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>163</v>
@@ -2194,19 +2194,19 @@
         <v>98232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85894</v>
+        <v>86323</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>110828</v>
+        <v>111902</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4481959805535807</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3919000841226898</v>
+        <v>0.3938598348925226</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5056681753708829</v>
+        <v>0.5105681216559672</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>292</v>
@@ -2215,19 +2215,19 @@
         <v>216765</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>196320</v>
+        <v>196457</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>240511</v>
+        <v>237019</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4807932796150718</v>
+        <v>0.4807932796150719</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4354444043123884</v>
+        <v>0.4357499104681037</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5334634282990205</v>
+        <v>0.5257165887961567</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>29079</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20543</v>
+        <v>19631</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42996</v>
+        <v>42833</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.125516913139997</v>
+        <v>0.1255169131399969</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.088669671531203</v>
+        <v>0.08473433521195502</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1855864025651198</v>
+        <v>0.1848838003110319</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -2265,19 +2265,19 @@
         <v>24527</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17394</v>
+        <v>16345</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33293</v>
+        <v>33190</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.111909227361118</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07936431150365485</v>
+        <v>0.07457773125920236</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1519049725854671</v>
+        <v>0.1514335205828399</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -2286,19 +2286,19 @@
         <v>53607</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40569</v>
+        <v>41509</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68497</v>
+        <v>68058</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1189017818874057</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08998267209600157</v>
+        <v>0.09206955061108091</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1519300037495086</v>
+        <v>0.1509553453933513</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>37946</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28458</v>
+        <v>27535</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51255</v>
+        <v>49592</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1637887528739784</v>
+        <v>0.1637887528739785</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1228339984212165</v>
+        <v>0.1188519355200539</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2212332967579214</v>
+        <v>0.2140570785821088</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -2336,19 +2336,19 @@
         <v>36643</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28527</v>
+        <v>28565</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46310</v>
+        <v>46021</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1671901567301215</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1301574642525918</v>
+        <v>0.1303320806339691</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2112960751758888</v>
+        <v>0.2099788294813429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>108</v>
@@ -2357,19 +2357,19 @@
         <v>74589</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62172</v>
+        <v>61711</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>90490</v>
+        <v>90495</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1654422840707658</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1378996033170491</v>
+        <v>0.1368765868108311</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2007109956260881</v>
+        <v>0.2007216250132866</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>105840</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>84692</v>
+        <v>83193</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>139983</v>
+        <v>134973</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.08170637672482695</v>
+        <v>0.08170637672482692</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06538061291608957</v>
+        <v>0.06422321189753065</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1080639067247873</v>
+        <v>0.1041965740614455</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>153</v>
@@ -2482,19 +2482,19 @@
         <v>112891</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>94087</v>
+        <v>95726</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>133219</v>
+        <v>134837</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08088041062840387</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06740850176521905</v>
+        <v>0.06858266409315716</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09544488150257494</v>
+        <v>0.09660348961938886</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>232</v>
@@ -2503,19 +2503,19 @@
         <v>218731</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>188847</v>
+        <v>187542</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>253368</v>
+        <v>251001</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08127798556444278</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07017353464596329</v>
+        <v>0.06968874147916777</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09414909058661032</v>
+        <v>0.09326948638837536</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>326371</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>290864</v>
+        <v>294692</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>361160</v>
+        <v>362198</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2519520867134037</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2245418718826052</v>
+        <v>0.227496384551496</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2788088957097767</v>
+        <v>0.2796101192570192</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>664</v>
@@ -2553,19 +2553,19 @@
         <v>436843</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>407039</v>
+        <v>403110</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>469040</v>
+        <v>466132</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3129756076919689</v>
+        <v>0.3129756076919688</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2916223541037014</v>
+        <v>0.2888074064532931</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3360428860087232</v>
+        <v>0.3339601048535674</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>985</v>
@@ -2574,19 +2574,19 @@
         <v>763214</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>719113</v>
+        <v>714800</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>814985</v>
+        <v>809229</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2836022199040345</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.267214954198303</v>
+        <v>0.265612212057914</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3028400247998242</v>
+        <v>0.3007010866796195</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>501443</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>463813</v>
+        <v>464634</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>541255</v>
+        <v>535948</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3871047650418318</v>
+        <v>0.3871047650418317</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.358055153962219</v>
+        <v>0.3586891633624796</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4178388548030157</v>
+        <v>0.4137419177469318</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>691</v>
@@ -2624,19 +2624,19 @@
         <v>451183</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>422343</v>
+        <v>423466</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>481197</v>
+        <v>482395</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3232494574285</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.302587087168683</v>
+        <v>0.303392031122585</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3447528179757288</v>
+        <v>0.3456113043086649</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1206</v>
@@ -2645,19 +2645,19 @@
         <v>952626</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>903501</v>
+        <v>904937</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>998289</v>
+        <v>1003359</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3539859125324765</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3357316134094953</v>
+        <v>0.3362651728603656</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3709536852100312</v>
+        <v>0.3728377233379327</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>211138</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>181104</v>
+        <v>185131</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>239218</v>
+        <v>242917</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1629945881291326</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.139808561044519</v>
+        <v>0.1429175284190059</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1846717106045295</v>
+        <v>0.1875274535653799</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>283</v>
@@ -2695,19 +2695,19 @@
         <v>204805</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>179725</v>
+        <v>183380</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>227665</v>
+        <v>229313</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1467321610404655</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1287638210934115</v>
+        <v>0.1313822465910264</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1631105255638047</v>
+        <v>0.1642913930468051</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>491</v>
@@ -2716,19 +2716,19 @@
         <v>415943</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>377230</v>
+        <v>380213</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>451544</v>
+        <v>452048</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1545600046258302</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1401746952652598</v>
+        <v>0.1412833235834568</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1677891418156499</v>
+        <v>0.1679764370124106</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>150576</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>128202</v>
+        <v>127877</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>178390</v>
+        <v>176559</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1162421833908049</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09896929529011929</v>
+        <v>0.09871865881316745</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.137713567441362</v>
+        <v>0.1362999762136273</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>275</v>
@@ -2766,19 +2766,19 @@
         <v>190052</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>168837</v>
+        <v>168218</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>214676</v>
+        <v>213458</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1361623632106617</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1209632090662157</v>
+        <v>0.1205195631487424</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1538043317960275</v>
+        <v>0.1529319309749682</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>442</v>
@@ -2787,19 +2787,19 @@
         <v>340628</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>310872</v>
+        <v>305904</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>375878</v>
+        <v>375009</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1265738773732161</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1155168067398196</v>
+        <v>0.1136707369106223</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1396724053594745</v>
+        <v>0.1393494529099368</v>
       </c>
     </row>
     <row r="33">
